--- a/dataset/NEW_TEST/selec/only_OD.xlsx
+++ b/dataset/NEW_TEST/selec/only_OD.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9904596988971417</v>
+        <v>0.9900810046073718</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7737176975064836</v>
+        <v>0.8025928063148173</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7236023193721108</v>
+        <v>0.6532893942701177</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004219526146430616</v>
+        <v>0.003203826529743772</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7478213262947858</v>
+        <v>0.7202854297858724</v>
       </c>
     </row>
   </sheetData>
